--- a/tbt1.0接口文档.xlsx
+++ b/tbt1.0接口文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>投不投1.0界面</t>
   </si>
@@ -295,10 +295,7 @@
     <t>视频列表</t>
   </si>
   <si>
-    <t>编辑类型，标题的保存</t>
-  </si>
-  <si>
-    <t>删除</t>
+    <t>图片分片上传</t>
   </si>
   <si>
     <t>会员(member)</t>
@@ -417,15 +414,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,7 +430,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,14 +457,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,9 +484,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,6 +507,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,21 +528,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -541,6 +538,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -559,37 +562,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,151 +700,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,17 +867,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,26 +906,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,15 +940,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -951,10 +948,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,137 +960,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,22 +1100,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1148,39 +1148,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,7 +1214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1205,10 +1223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1587,18 +1605,18 @@
   <cols>
     <col min="1" max="1" width="11.4416666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39" style="4" customWidth="1"/>
     <col min="4" max="16384" width="15.6666666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:33">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1629,14 +1647,14 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1644,16 +1662,16 @@
       </c>
     </row>
     <row r="3" ht="49.2" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
@@ -1661,16 +1679,16 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
@@ -1678,12 +1696,12 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2">
@@ -1691,14 +1709,14 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2">
@@ -1708,30 +1726,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" s="41" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
+    <row r="7" s="48" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="2">
@@ -1739,14 +1757,14 @@
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2">
@@ -1754,14 +1772,14 @@
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="2">
@@ -1769,14 +1787,14 @@
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="2">
@@ -1784,16 +1802,16 @@
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E12" s="2">
@@ -1801,12 +1819,12 @@
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="2">
@@ -1814,12 +1832,12 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="2">
@@ -1827,12 +1845,12 @@
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="2">
@@ -1840,12 +1858,12 @@
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2">
@@ -1853,12 +1871,12 @@
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2">
@@ -1866,12 +1884,12 @@
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:5">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="2">
@@ -1879,16 +1897,16 @@
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2">
@@ -1896,12 +1914,12 @@
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:5">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="2">
@@ -1909,12 +1927,12 @@
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="2">
@@ -1922,14 +1940,14 @@
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2">
@@ -1937,14 +1955,14 @@
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="2">
@@ -1952,12 +1970,12 @@
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="2">
@@ -1965,8 +1983,8 @@
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="3:4">
-      <c r="C25" s="44"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" ht="30" customHeight="1"/>
     <row r="27" ht="30" customHeight="1"/>
@@ -2012,9 +2030,9 @@
     <col min="1" max="1" width="11.4416666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="32.4416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.3333333333333" style="20" customWidth="1"/>
-    <col min="6" max="6" width="35.4416666666667" style="21" customWidth="1"/>
+    <col min="4" max="4" width="39" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.3333333333333" style="27" customWidth="1"/>
+    <col min="6" max="6" width="35.4416666666667" style="28" customWidth="1"/>
     <col min="7" max="7" width="6.66666666666667" style="2" customWidth="1"/>
     <col min="8" max="8" width="5.44166666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.21666666666667" style="2" customWidth="1"/>
@@ -2022,42 +2040,42 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="40" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="47" t="s">
         <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -2065,45 +2083,45 @@
       </c>
     </row>
     <row r="3" ht="49.2" customHeight="1" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="2">
         <f>IF(LEN(F4),1,0)</f>
         <v>0</v>
@@ -2111,355 +2129,355 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="30"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="31"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:10">
-      <c r="A9" s="15"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="35"/>
       <c r="G9" s="2">
         <f t="shared" ref="G9" si="0">IF(LEN(F9),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="35"/>
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:10">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="35"/>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:10">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="35"/>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="35"/>
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="35"/>
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="35"/>
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="35"/>
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="35"/>
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="35"/>
       <c r="G18" s="2">
         <f>IF(LEN(F18),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="15"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="35"/>
       <c r="G19" s="2">
         <f>IF(LEN(F19),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="15"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="2">
         <f>IF(LEN(F20),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="2">
         <f>IF(LEN(F21),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="2">
         <f>IF(LEN(F22),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="5:6">
       <c r="E23" s="2"/>
-      <c r="F23" s="39"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" customHeight="1" spans="5:5">
       <c r="E24" s="2"/>
@@ -2520,18 +2538,18 @@
   <cols>
     <col min="1" max="1" width="12.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39" style="4" customWidth="1"/>
     <col min="4" max="16384" width="15.6666666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.2" customHeight="1" spans="1:33">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2562,14 +2580,14 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2577,16 +2595,16 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="49.2" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>83</v>
       </c>
       <c r="E3" s="2">
@@ -2594,16 +2612,16 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="2">
@@ -2611,199 +2629,218 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
-      <c r="A8" s="18"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A10" s="25"/>
+      <c r="B10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A11" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A11" s="17" t="s">
+      <c r="B11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="30" customHeight="1" spans="3:3">
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="30" customHeight="1" spans="3:3">
-      <c r="C21" s="3"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="30" customHeight="1" spans="3:3">
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="30" customHeight="1" spans="3:3">
-      <c r="C23" s="3"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="3:3">
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="30" customHeight="1" spans="3:3">
-      <c r="C25" s="3"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="30" customHeight="1" spans="3:3">
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="30" customHeight="1" spans="3:3">
-      <c r="C27" s="3"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="3:3">
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="30" customHeight="1"/>
     <row r="30" s="2" customFormat="1" ht="30" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
